--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2558498700285177</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.319524806415085</v>
+        <v>-1.319235716893085</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1664605869084859</v>
+        <v>-0.1670898676356675</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1287008231814051</v>
+        <v>-0.1291096366468596</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2779261350357918</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388593841403612</v>
+        <v>-1.388548579912794</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2346448327539221</v>
+        <v>-0.2350405057865584</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1334985412081311</v>
+        <v>-0.1336357857286765</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2909370008531922</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492357999176403</v>
+        <v>-1.492270396290948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2810130400250006</v>
+        <v>-0.281375131951546</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1383488209661298</v>
+        <v>-0.1384714650057661</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2820034884676423</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.644566552605544</v>
+        <v>-1.64465707558718</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2921079454678158</v>
+        <v>-0.2919692408991795</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1488436466435815</v>
+        <v>-0.1488640873168542</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2512452172338512</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.739017063606427</v>
+        <v>-1.739113426780427</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2909092459851798</v>
+        <v>-0.2909486672836343</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1670212453753948</v>
+        <v>-0.1667671970075767</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.207201121091512</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.579769618331015</v>
+        <v>-1.579598792704379</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2236915519759251</v>
+        <v>-0.2237046924087432</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1740688975102111</v>
+        <v>-0.1736031421692112</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.161572928145174</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.421804095279422</v>
+        <v>-1.421123712869058</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1471485308100365</v>
+        <v>-0.1472624145611274</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1534004567353076</v>
+        <v>-0.1531610088483986</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1191184076876544</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.152051450195494</v>
+        <v>-1.151349167063767</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004900425457074724</v>
+        <v>-0.005424582721710947</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1310558807520409</v>
+        <v>-0.1305317234874046</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07797353915957064</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7815832277525935</v>
+        <v>-0.7804735912035028</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08188483306653833</v>
+        <v>0.08095186233644767</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1177840436056808</v>
+        <v>-0.11730076768759</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03535322172573711</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4074648850824212</v>
+        <v>-0.4056471252092398</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1256541547357993</v>
+        <v>0.1240174408258907</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07406728366769251</v>
+        <v>-0.07347450414278359</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01012320673067149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06050680891945317</v>
+        <v>0.06308963399227066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1394530692429774</v>
+        <v>0.1374776241759779</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02736809740009843</v>
+        <v>0.02767762759537107</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05937925589088333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6000836414437628</v>
+        <v>0.6033088876765802</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05966436117099885</v>
+        <v>0.05742026725527218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1783881716832397</v>
+        <v>0.1789021086112396</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1136239753164122</v>
       </c>
       <c r="E14" t="n">
-        <v>1.163726446650521</v>
+        <v>1.167423288416701</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08736102153541622</v>
+        <v>-0.08960511545114289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3069819072900233</v>
+        <v>0.3076944107583868</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1737823709071969</v>
       </c>
       <c r="E15" t="n">
-        <v>1.810885462705347</v>
+        <v>1.814846573175982</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2561265203154618</v>
+        <v>-0.2580946651420067</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4883432409503383</v>
+        <v>0.4890250834087926</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2373175046469842</v>
       </c>
       <c r="E16" t="n">
-        <v>2.43832506924436</v>
+        <v>2.442362102215723</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4931434271531254</v>
+        <v>-0.495117412172034</v>
       </c>
       <c r="G16" t="n">
-        <v>0.605693146209034</v>
+        <v>0.6066377973238519</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3014052369667485</v>
       </c>
       <c r="E17" t="n">
-        <v>3.04928949312556</v>
+        <v>3.053440409848013</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6271889823313622</v>
+        <v>-0.6295250592768161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7921339871776204</v>
+        <v>0.7930289966573474</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3666484817642799</v>
       </c>
       <c r="E18" t="n">
-        <v>3.649452481230217</v>
+        <v>3.653756703002216</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7499585861035111</v>
+        <v>-0.7525355709839648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9344229738771276</v>
+        <v>0.9351807388363093</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4339699563163905</v>
       </c>
       <c r="E19" t="n">
-        <v>4.1837176587998</v>
+        <v>4.187789732925345</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9080306926657413</v>
+        <v>-0.9107186412011042</v>
       </c>
       <c r="G19" t="n">
-        <v>1.086757091442087</v>
+        <v>1.087584938709632</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5004444862809045</v>
       </c>
       <c r="E20" t="n">
-        <v>4.727013233811655</v>
+        <v>4.731016685676926</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.122780406068956</v>
+        <v>-1.12564648047141</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246000156573226</v>
+        <v>1.246775442109498</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5626150969540824</v>
       </c>
       <c r="E21" t="n">
-        <v>5.187048106391349</v>
+        <v>5.190798969936893</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.279040592950369</v>
+        <v>-1.282090633412277</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422150578597088</v>
+        <v>1.422890822979178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6183156032444018</v>
       </c>
       <c r="E22" t="n">
-        <v>5.592072747049877</v>
+        <v>5.594963642269876</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.486525107053222</v>
+        <v>-1.489369280734312</v>
       </c>
       <c r="G22" t="n">
-        <v>1.538085697255693</v>
+        <v>1.538596714087511</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6653934842473901</v>
       </c>
       <c r="E23" t="n">
-        <v>5.863924941288531</v>
+        <v>5.866643550833803</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.666151903581538</v>
+        <v>-1.669194643802991</v>
       </c>
       <c r="G23" t="n">
-        <v>1.698746469083104</v>
+        <v>1.699491093609468</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7030895367279709</v>
       </c>
       <c r="E24" t="n">
-        <v>6.169292539453995</v>
+        <v>6.171536633369722</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.839113580574855</v>
+        <v>-1.841966514544491</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813198178881346</v>
+        <v>1.81334856383471</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7312456922701187</v>
       </c>
       <c r="E25" t="n">
-        <v>6.382970577558483</v>
+        <v>6.384137155983119</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.974903893221728</v>
+        <v>-1.977493288510954</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9161812109255</v>
+        <v>1.916173910685046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7493384054325438</v>
       </c>
       <c r="E26" t="n">
-        <v>6.482821806447638</v>
+        <v>6.483756237225819</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.081911547828472</v>
+        <v>-2.08439946977538</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980528450388028</v>
+        <v>1.980270021875938</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7569173730829487</v>
       </c>
       <c r="E27" t="n">
-        <v>6.536757442973896</v>
+        <v>6.537218818170623</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.169799142660721</v>
+        <v>-2.172396568214447</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062916044061824</v>
+        <v>2.062534971510098</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7536033242187509</v>
       </c>
       <c r="E28" t="n">
-        <v>6.648178092935412</v>
+        <v>6.647925504615684</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.229483718544932</v>
+        <v>-2.231855566668613</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092974054109362</v>
+        <v>2.092498078431726</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7402806206735508</v>
       </c>
       <c r="E29" t="n">
-        <v>6.585928942579519</v>
+        <v>6.58515949723561</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.290491828023552</v>
+        <v>-2.292467273090551</v>
       </c>
       <c r="G29" t="n">
-        <v>2.139578789171168</v>
+        <v>2.138689619883804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7181601790196758</v>
       </c>
       <c r="E30" t="n">
-        <v>6.551817839031619</v>
+        <v>6.551473267682165</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.326130141874542</v>
+        <v>-2.327870519198906</v>
       </c>
       <c r="G30" t="n">
-        <v>2.124167981571626</v>
+        <v>2.123183909158354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6884759772435209</v>
       </c>
       <c r="E31" t="n">
-        <v>6.463283442895097</v>
+        <v>6.462531518128279</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.30811460848082</v>
+        <v>-2.309637438639638</v>
       </c>
       <c r="G31" t="n">
-        <v>2.107037237320994</v>
+        <v>2.105877959136813</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6530576445430083</v>
       </c>
       <c r="E32" t="n">
-        <v>6.288591608914054</v>
+        <v>6.287464451787872</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.313725573294182</v>
+        <v>-2.315268844126273</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04418946724783</v>
+        <v>2.042996607957557</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6137722361055602</v>
       </c>
       <c r="E33" t="n">
-        <v>6.104572987728285</v>
+        <v>6.103626876565376</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.337122843950994</v>
+        <v>-2.338139767446312</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978446421810393</v>
+        <v>1.977347005597939</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5722192531216549</v>
       </c>
       <c r="E34" t="n">
-        <v>5.866132534001985</v>
+        <v>5.864833091201076</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.380165791695028</v>
+        <v>-2.381276888292209</v>
       </c>
       <c r="G34" t="n">
-        <v>1.895153598320233</v>
+        <v>1.893919857683415</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5292808337744378</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6410836413655</v>
+        <v>5.63984552058441</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.368153246027076</v>
+        <v>-2.369019784569031</v>
       </c>
       <c r="G35" t="n">
-        <v>1.827178139351797</v>
+        <v>1.825585226884616</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4854768197206867</v>
       </c>
       <c r="E36" t="n">
-        <v>5.451900830082187</v>
+        <v>5.450271416412733</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.329398459526042</v>
+        <v>-2.330052561070769</v>
       </c>
       <c r="G36" t="n">
-        <v>1.739522692166002</v>
+        <v>1.737820276092003</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4415454178424058</v>
       </c>
       <c r="E37" t="n">
-        <v>5.090302399791558</v>
+        <v>5.088382436552012</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270079625688603</v>
+        <v>-2.270221980377467</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652049750991571</v>
+        <v>1.650529840928935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3981019384811681</v>
       </c>
       <c r="E38" t="n">
-        <v>4.815464407206995</v>
+        <v>4.813566344688813</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164754676506631</v>
+        <v>-2.165024785403449</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551468498056962</v>
+        <v>1.550474205307053</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3557722068252838</v>
       </c>
       <c r="E39" t="n">
-        <v>4.521415101842256</v>
+        <v>4.519775467836165</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146871277465136</v>
+        <v>-2.147138466265772</v>
       </c>
       <c r="G39" t="n">
-        <v>1.439624434149083</v>
+        <v>1.438630141399174</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3148085623834835</v>
       </c>
       <c r="E40" t="n">
-        <v>4.253396993890327</v>
+        <v>4.251519372045419</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118142641204371</v>
+        <v>-2.118252874835235</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384354313667734</v>
+        <v>1.382967267981371</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2753959286577849</v>
       </c>
       <c r="E41" t="n">
-        <v>3.959458652180497</v>
+        <v>3.95724521927468</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028337273204713</v>
+        <v>-2.028502988663031</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263868225109766</v>
+        <v>1.262628644280585</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2378652676705904</v>
       </c>
       <c r="E42" t="n">
-        <v>3.705419044650929</v>
+        <v>3.702936962896384</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933821060039739</v>
+        <v>-1.933850261001557</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158952089393249</v>
+        <v>1.157731489189249</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2025021700298952</v>
       </c>
       <c r="E43" t="n">
-        <v>3.434518801767547</v>
+        <v>3.43216082410073</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865984305639939</v>
+        <v>-1.866229593719211</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065678377153638</v>
+        <v>1.064708905221274</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1691859061907136</v>
       </c>
       <c r="E44" t="n">
-        <v>3.16597215640671</v>
+        <v>3.163841946242075</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825835903236131</v>
+        <v>-1.826042500040995</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9316970640914011</v>
+        <v>0.930850236198674</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1371890441887272</v>
       </c>
       <c r="E45" t="n">
-        <v>2.908127663552234</v>
+        <v>2.906074835936416</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74324682292579</v>
+        <v>-1.743092057828153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8116095686622515</v>
+        <v>0.8105393534116154</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1057335617835611</v>
       </c>
       <c r="E46" t="n">
-        <v>2.659639158864301</v>
+        <v>2.657409665429483</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695250662033348</v>
+        <v>-1.694983473232712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7706245587023534</v>
+        <v>0.7696127453753536</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.07428007561155875</v>
       </c>
       <c r="E47" t="n">
-        <v>2.359276605554472</v>
+        <v>2.357352262170655</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648454660671633</v>
+        <v>-1.648067747927543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6637723992172911</v>
+        <v>0.6628335882948369</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04316838842019882</v>
       </c>
       <c r="E48" t="n">
-        <v>2.167865760884433</v>
+        <v>2.165919516779252</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614054467601733</v>
+        <v>-1.613879261830824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6015480696789443</v>
+        <v>0.6006209391412173</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01291747652532706</v>
       </c>
       <c r="E49" t="n">
-        <v>1.970128527836486</v>
+        <v>1.96833558878085</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.565880180842201</v>
+        <v>-1.565370624058474</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5404216963049606</v>
+        <v>0.5395719483160518</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01631331059110876</v>
       </c>
       <c r="E50" t="n">
-        <v>1.858468429988061</v>
+        <v>1.856383481314244</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.492917197595221</v>
+        <v>-1.492395960426766</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4792091800936135</v>
+        <v>0.478289349796341</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04461993863966512</v>
       </c>
       <c r="E51" t="n">
-        <v>1.681107628096836</v>
+        <v>1.6795074153892</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.435976782097872</v>
+        <v>-1.4351372544456</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4211299270853563</v>
+        <v>0.4202480580384475</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07227377302444983</v>
       </c>
       <c r="E52" t="n">
-        <v>1.562778030569141</v>
+        <v>1.561125256130232</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.396381737920519</v>
+        <v>-1.395431246613338</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3400753573185599</v>
+        <v>0.3393190524074692</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1000123141687891</v>
       </c>
       <c r="E53" t="n">
-        <v>1.385754499786916</v>
+        <v>1.384190788281552</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.358570872510257</v>
+        <v>-1.357751785531257</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2732212152839415</v>
+        <v>0.2725057917193963</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1274518068429004</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332525526536657</v>
+        <v>1.331490352440203</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.339855976080989</v>
+        <v>-1.338966806793626</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2221399727754098</v>
+        <v>0.2210434766591373</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1548364877709074</v>
       </c>
       <c r="E55" t="n">
-        <v>1.210285920221508</v>
+        <v>1.209047799440417</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.303484718088362</v>
+        <v>-1.302734253369635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1647323418889706</v>
+        <v>0.1643541894334253</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1824809820432939</v>
       </c>
       <c r="E56" t="n">
-        <v>1.180004522816062</v>
+        <v>1.178848164728062</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.250760921477558</v>
+        <v>-1.250016296951195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1041651669338051</v>
+        <v>0.1039563800568051</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2109183024600526</v>
       </c>
       <c r="E57" t="n">
-        <v>1.088519369487813</v>
+        <v>1.087833146885086</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.24205465471147</v>
+        <v>-1.241511516821652</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06045716728436227</v>
+        <v>0.06050096872708953</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2398385048641967</v>
       </c>
       <c r="E58" t="n">
-        <v>1.034744338251555</v>
+        <v>1.034008474013737</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.204439435745389</v>
+        <v>-1.203929878961662</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01656328960725341</v>
+        <v>-0.01648444701034434</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.26827239022939</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9263182469244934</v>
+        <v>0.9254319977333119</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.120746559078321</v>
+        <v>-1.120126038639684</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0929632260602329</v>
+        <v>-0.09299972726250562</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2952884482151103</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9014623882248637</v>
+        <v>0.9008447878824093</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.101355660382962</v>
+        <v>-1.100959987350326</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1201726822824074</v>
+        <v>-0.1200281375214075</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3203804903286996</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7685615107498994</v>
+        <v>0.768136636755445</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.07174004490697</v>
+        <v>-1.071325391249152</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1495313292943995</v>
+        <v>-0.1490743342419451</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3431896948520688</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7292686965273645</v>
+        <v>0.7285956143574556</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.066624036396426</v>
+        <v>-1.066121779853153</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2240857649604704</v>
+        <v>-0.2239689611131977</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3631905127444868</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6382755794057525</v>
+        <v>0.6375659960335709</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.101068030909053</v>
+        <v>-1.100723459559599</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2393199067410118</v>
+        <v>-0.2391432409220118</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3806282809925499</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5476051329122315</v>
+        <v>0.5473788254581406</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.087158152746966</v>
+        <v>-1.086947905821875</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2903164664602708</v>
+        <v>-0.2898565513116346</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3959839222820623</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4617353245416181</v>
+        <v>0.4620302542559817</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.054980152871429</v>
+        <v>-1.054629741329611</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.323240550910262</v>
+        <v>-0.3226171103754439</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4094493302217324</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4133683114340857</v>
+        <v>0.4134778150409039</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.070287297056516</v>
+        <v>-1.070215754700061</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3516034451242543</v>
+        <v>-0.351128929494709</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4208907263546811</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384034485239639</v>
+        <v>0.3845601025523662</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.088640101559238</v>
+        <v>-1.088678062809602</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3856780474698815</v>
+        <v>-0.3848355997214272</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4301895294326911</v>
       </c>
       <c r="E68" t="n">
-        <v>0.304460404237024</v>
+        <v>0.3051772878496602</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.103703417713143</v>
+        <v>-1.103869863195507</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3957363187681516</v>
+        <v>-0.3950515562135154</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4373861860335038</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1996377115983249</v>
+        <v>0.2005721423765065</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144819832001223</v>
+        <v>-1.14515126291786</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4191525700501453</v>
+        <v>-0.4184634273512364</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4418701038060049</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1361752612788874</v>
+        <v>0.1372235758081598</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192598445728119</v>
+        <v>-1.193121142944665</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4359927647306863</v>
+        <v>-0.4352992418875046</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4426556661897308</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08632629935908259</v>
+        <v>0.086847536527537</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.278249246885096</v>
+        <v>-1.279167617134278</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4960460027578519</v>
+        <v>-0.4956225888114884</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.438415704324997</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0008517121009849023</v>
+        <v>2.869689783304312e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.314719788147905</v>
+        <v>-1.315379729884996</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4901517886148535</v>
+        <v>-0.4897269146203991</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4280503700876789</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01446520050061761</v>
+        <v>-0.01348258813543606</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.304746199638908</v>
+        <v>-1.305476223684362</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5402372783253855</v>
+        <v>-0.5397364818302038</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4107761251182078</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0159330007521015</v>
+        <v>0.01669222575937402</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345243553536442</v>
+        <v>-1.345766250752988</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5251710420752986</v>
+        <v>-0.5248892527937533</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3858567065021547</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02089278411691835</v>
+        <v>0.02199950056982714</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395006372618883</v>
+        <v>-1.395910142387156</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4763178329534936</v>
+        <v>-0.4758330969873119</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3533393620269921</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07261060759308628</v>
+        <v>0.07364724173763146</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.341241561719261</v>
+        <v>-1.342104450140988</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4868374794484908</v>
+        <v>-0.4863089420395818</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3142592174486894</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1857730949270559</v>
+        <v>0.1868549905624192</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.339369780066716</v>
+        <v>-1.340346552239534</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4324798890239599</v>
+        <v>-0.43199807315396</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2702355637743066</v>
       </c>
       <c r="E78" t="n">
-        <v>0.271006322330033</v>
+        <v>0.2716443633457601</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.305128732238725</v>
+        <v>-1.306302610903816</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.433645007400505</v>
+        <v>-0.4333194166762324</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2228111220918627</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3634653277349173</v>
+        <v>0.3638653809118262</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.321370307201994</v>
+        <v>-1.321773280475085</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4018626805576045</v>
+        <v>-0.4015429300256955</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.173711162312214</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4664483597790715</v>
+        <v>0.4665768440110714</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.336909599033535</v>
+        <v>-1.337633782886626</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3435410595662565</v>
+        <v>-0.3433775341800748</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1238883970933441</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5655578842380449</v>
+        <v>0.565442540438863</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284813623101822</v>
+        <v>-1.285672131379276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2921532069586339</v>
+        <v>-0.2920115822938158</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.07459073868272004</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7019818577563718</v>
+        <v>0.701516102415372</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.220333519263021</v>
+        <v>-1.220762773401748</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2587414664462793</v>
+        <v>-0.2587166456287339</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02681101557834492</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8577865096334208</v>
+        <v>0.8570769262612393</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.163626711460218</v>
+        <v>-1.164591803248309</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2155649243019273</v>
+        <v>-0.2155225829072909</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.01911285362643726</v>
       </c>
       <c r="E84" t="n">
-        <v>1.027106826688012</v>
+        <v>1.026368042354012</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.072947504678152</v>
+        <v>-1.073724250262515</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1652560472334862</v>
+        <v>-0.1655217759860316</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.06337055946238122</v>
       </c>
       <c r="E85" t="n">
-        <v>1.12167706163235</v>
+        <v>1.120666708353441</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.002641808956625</v>
+        <v>-1.002976159969443</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1312164860420408</v>
+        <v>-0.1313128492160408</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1057757378843417</v>
       </c>
       <c r="E86" t="n">
-        <v>1.287354558700124</v>
+        <v>1.286033215177851</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9264652598615546</v>
+        <v>-0.9266317053439181</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04620518594888182</v>
+        <v>-0.04637747162360904</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1455806079235338</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385030315933825</v>
+        <v>1.383844756884007</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8265293481831268</v>
+        <v>-0.826510367557945</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01659395061716249</v>
+        <v>-0.01712978826652599</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.180646868123031</v>
       </c>
       <c r="E88" t="n">
-        <v>1.472506177204438</v>
+        <v>1.471098690844802</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6988174816232521</v>
+        <v>-0.698945965855252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0347661610767328</v>
+        <v>0.03415586097473297</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2085012145810818</v>
       </c>
       <c r="E89" t="n">
-        <v>1.570060750446593</v>
+        <v>1.568606542548048</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5671386644003783</v>
+        <v>-0.5670277007454693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08036346295581147</v>
+        <v>0.079747322661448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2270947756490438</v>
       </c>
       <c r="E90" t="n">
-        <v>1.630506741410213</v>
+        <v>1.628906528702577</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4382660596082311</v>
+        <v>-0.4385463888416856</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09357689817853519</v>
+        <v>0.09289359567198993</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2346810585160245</v>
       </c>
       <c r="E91" t="n">
-        <v>1.674765179189929</v>
+        <v>1.673062763115929</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2789529121687284</v>
+        <v>-0.2787485054360012</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1079423113449859</v>
+        <v>0.1071509652797134</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2304657000918571</v>
       </c>
       <c r="E92" t="n">
-        <v>1.704482998032284</v>
+        <v>1.702798102535376</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1193448350148622</v>
+        <v>-0.119524420930044</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1039038183255324</v>
+        <v>0.1036687505828961</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2167092849843026</v>
       </c>
       <c r="E93" t="n">
-        <v>1.700955521844649</v>
+        <v>1.699136301923377</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03906600270445892</v>
+        <v>0.03878713351909537</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09962149727489721</v>
+        <v>0.09937620919562455</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1964138399566261</v>
       </c>
       <c r="E94" t="n">
-        <v>1.649373482840936</v>
+        <v>1.647558643063936</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1492675125100657</v>
+        <v>0.1487696361110658</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06016223756999872</v>
+        <v>0.06022647968599869</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.172285303892372</v>
       </c>
       <c r="E95" t="n">
-        <v>1.559389258950142</v>
+        <v>1.557485356239597</v>
       </c>
       <c r="F95" t="n">
-        <v>0.234210190342952</v>
+        <v>0.2335137474035885</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01184194600137533</v>
+        <v>0.01173098234646626</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1464041600373457</v>
       </c>
       <c r="E96" t="n">
-        <v>1.436086737624811</v>
+        <v>1.434369721069902</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3136046854303852</v>
+        <v>0.3129053223948399</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02846706169243203</v>
+        <v>-0.02840281957643205</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1207075231747377</v>
       </c>
       <c r="E97" t="n">
-        <v>1.281606349366216</v>
+        <v>1.279928754109762</v>
       </c>
       <c r="F97" t="n">
-        <v>0.363085715231281</v>
+        <v>0.362606819457463</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04921872520851737</v>
+        <v>-0.04903767924524469</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09576736915277316</v>
       </c>
       <c r="E98" t="n">
-        <v>1.148585747947797</v>
+        <v>1.147251263992707</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3823364493099122</v>
+        <v>0.3819217956520941</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08660763672050734</v>
+        <v>-0.08628788618859833</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07326365843753258</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9941243403143842</v>
+        <v>0.9933388344414754</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3774263075801862</v>
+        <v>0.3770525352689136</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1269078841257692</v>
+        <v>-0.1266304749884966</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05271266689510287</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8857989923055952</v>
+        <v>0.8852237333577772</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467331766131036</v>
+        <v>0.3464732880529218</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.141512745179129</v>
+        <v>-0.1411097719060382</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03511224115680357</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7447335259062694</v>
+        <v>0.7447539665795422</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3478909947491942</v>
+        <v>0.3477479100362851</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.133835812317131</v>
+        <v>-0.1335671634684038</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01541431187076043</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6312133267900272</v>
+        <v>0.6311023631351181</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3051130457336602</v>
+        <v>0.3051188859260239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945124908791147</v>
+        <v>-0.1945256313119329</v>
       </c>
     </row>
   </sheetData>
